--- a/Balance/수입및지출내역.xlsx
+++ b/Balance/수입및지출내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박승빈\Desktop\IVF-SEED\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791CADC9-098A-467D-8E0D-4577699858A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B76390C-C1EE-459B-BBF0-763FFDE00151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18E6AD9D-570A-4E80-8DE0-36A472B1012C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>수입</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -668,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018A6AAC-DC8D-46EC-87FC-9984D95AE976}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -783,65 +783,68 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4">
+        <v>45745</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f>187+57+68+71+71+71+123+123+68</f>
         <v>839</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>55</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1">
-        <f>SUM(C3:C12)</f>
-        <v>2580894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
+      <c r="E13" s="1">
+        <f>SUM(C3:C13)</f>
+        <v>2680894</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -849,43 +852,51 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <f>2580894+720000</f>
         <v>3300894</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -897,7 +908,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Balance/수입및지출내역.xlsx
+++ b/Balance/수입및지출내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박승빈\Desktop\IVF-SEED\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B76390C-C1EE-459B-BBF0-763FFDE00151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B0765-F8D8-4D6E-9708-3852977CFAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18E6AD9D-570A-4E80-8DE0-36A472B1012C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>수입</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>단체복 구매 (6인)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>수입 총합</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -148,6 +144,18 @@
   </si>
   <si>
     <t>지출 총합</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체복신청</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체복 구매 (7인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>필리핀선교헌금</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -304,18 +312,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,12 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -668,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018A6AAC-DC8D-46EC-87FC-9984D95AE976}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,26 +689,26 @@
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>45729</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -710,7 +718,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -718,8 +726,8 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>45730</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -729,8 +737,8 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>45734</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -740,8 +748,8 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>45735</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -751,8 +759,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>45742</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -762,8 +770,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -771,8 +779,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>45743</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -782,8 +790,8 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>45745</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -793,110 +801,150 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45746</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>45747</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C16">
         <f>187+57+68+71+71+71+123+123+68</f>
         <v>839</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C17" s="1">
         <v>55</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="1">
-        <f>SUM(C3:C13)</f>
-        <v>2680894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="E17" s="1">
+        <f>SUM(C3:C17)</f>
+        <v>2910894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="7">
+        <f>E17+720000</f>
+        <v>3630894</v>
+      </c>
+      <c r="F28" t="s">
         <v>24</v>
-      </c>
-      <c r="E24" s="11">
-        <f>2580894+720000</f>
-        <v>3300894</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -908,7 +956,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -919,25 +967,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>45743</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -956,7 +1004,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
@@ -965,7 +1013,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>45744</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -974,7 +1022,7 @@
       <c r="C6" s="1">
         <v>-435600</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1">
@@ -983,34 +1031,34 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>-241269</v>
@@ -1018,28 +1066,28 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>-180000</v>
+        <v>-210000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <f>SUM(C11:C15)</f>
-        <v>-421269</v>
+        <v>-451269</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1">
         <f>SUM(E6,E15)</f>
-        <v>-1934942</v>
+        <v>-1964942</v>
       </c>
     </row>
   </sheetData>

--- a/Balance/수입및지출내역.xlsx
+++ b/Balance/수입및지출내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박승빈\Desktop\IVF-SEED\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B0765-F8D8-4D6E-9708-3852977CFAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1A967D-40CC-473B-94AB-9F39AEC54E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18E6AD9D-570A-4E80-8DE0-36A472B1012C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>수입</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -151,11 +151,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>단체복 구매 (7인)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>필리핀선교헌금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>후원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체복 구매 (8인)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018A6AAC-DC8D-46EC-87FC-9984D95AE976}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,7 +828,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>100000</v>
@@ -835,116 +839,134 @@
         <v>45747</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
-        <f>187+57+68+71+71+71+123+123+68</f>
-        <v>839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="C18">
+        <f>187+57+68+71+71+71+123+123+68+186</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="1">
         <v>55</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="1">
-        <f>SUM(C3:C17)</f>
-        <v>2910894</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
+      <c r="E19" s="1">
+        <f>SUM(C3:C19)</f>
+        <v>2951080</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
-        <v>360000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>360000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>360000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="7">
-        <f>E17+720000</f>
-        <v>3630894</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E30" s="7">
+        <f>E19+720000</f>
+        <v>3671080</v>
+      </c>
+      <c r="F30" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -953,10 +975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F569244-BFDB-4D19-9594-BD0DA78A671F}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1022,78 +1044,83 @@
       <c r="C6" s="1">
         <v>-435600</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <f>SUM(C3:C6)</f>
-        <v>-1513673</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-213810</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUM(C3:C7)</f>
+        <v>-1727483</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="3"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>-241269</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-210000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="5" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6">
-        <f>SUM(C11:C15)</f>
-        <v>-451269</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
+      <c r="E17" s="6">
+        <f>SUM(C13:C17)</f>
+        <v>-241269</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1">
-        <f>SUM(E6,E15)</f>
-        <v>-1964942</v>
+      <c r="E19" s="1">
+        <f>SUM(E7,E17)</f>
+        <v>-1968752</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Balance/수입및지출내역.xlsx
+++ b/Balance/수입및지출내역.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박승빈\Desktop\IVF-SEED\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1A967D-40CC-473B-94AB-9F39AEC54E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499C5B69-32FD-47EF-BB27-7ACE05FDDC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18E6AD9D-570A-4E80-8DE0-36A472B1012C}"/>
   </bookViews>
   <sheets>
     <sheet name="수입" sheetId="1" r:id="rId1"/>
     <sheet name="지출" sheetId="2" r:id="rId2"/>
+    <sheet name="활동 중 지출 내역" sheetId="3" r:id="rId3"/>
+    <sheet name="1인 당 비용 지출" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
   <si>
     <t>수입</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -160,6 +162,94 @@
   </si>
   <si>
     <t>단체복 구매 (8인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 숙소 1박 (8/9-10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁-일반</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁-학생</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심-학생</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심-일반</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동비</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장에서 음식재료 사기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>간식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 렌트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복 대여</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동궁과 월지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주월드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주월드(생일할인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>랩탑 스탠드 구매</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -291,6 +381,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -306,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,6 +430,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,6 +467,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018A6AAC-DC8D-46EC-87FC-9984D95AE976}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,11 +823,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -864,109 +993,128 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3">
+        <v>45751</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <f>187+57+68+71+71+71+123+123+68+186</f>
         <v>1025</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>55</v>
       </c>
-      <c r="D19" s="5" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="1">
-        <f>SUM(C3:C19)</f>
-        <v>2951080</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
+      <c r="E21" s="1">
+        <f>SUM(C3:C21)</f>
+        <v>3071080</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
-        <v>360000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>360000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>360000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="7">
-        <f>E19+720000</f>
-        <v>3671080</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E32" s="7">
+        <f>E21+720000</f>
+        <v>3791080</v>
+      </c>
+      <c r="F32" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -978,7 +1126,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -989,11 +1137,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1053,17 +1201,24 @@
       <c r="C7" s="1">
         <v>-213810</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45750</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-650000</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1">
-        <f>SUM(C3:C7)</f>
-        <v>-1727483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="C8" s="1"/>
+      <c r="E8" s="1">
+        <f>SUM(C3:C8)</f>
+        <v>-2377483</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -1074,11 +1229,11 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1113,8 +1268,8 @@
         <v>26</v>
       </c>
       <c r="E19" s="1">
-        <f>SUM(E7,E17)</f>
-        <v>-1968752</v>
+        <f>SUM(E8,E17)</f>
+        <v>-2618752</v>
       </c>
     </row>
   </sheetData>
@@ -1125,4 +1280,1019 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B7EA35-A25C-4F31-87D3-1B749932A158}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45873</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8">
+        <f>C3*D3</f>
+        <v>22500</v>
+      </c>
+      <c r="G3" s="9">
+        <v>45876</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3">
+        <v>30000</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:K6" si="0">I3*J3</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E31" si="1">C4*D4</f>
+        <v>38500</v>
+      </c>
+      <c r="G4" s="9">
+        <v>45877</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45874</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8">
+        <f>C6*D6</f>
+        <v>22500</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8">
+        <f>C7*D7</f>
+        <v>38500</v>
+      </c>
+      <c r="G7" s="9">
+        <v>45878</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>30000</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7">
+        <f>I7*J7</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="G8" s="9">
+        <v>45879</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>3000</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7">
+        <f>I8*J8</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45875</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>45880</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>26000</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <f>I9*J9</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
+        <f>C10*D10</f>
+        <v>22500</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10">
+        <v>35400</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7">
+        <f>I10*J10</f>
+        <v>389400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8">
+        <f>C11*D11</f>
+        <v>38500</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="7">
+        <f>SUM(K3:K10)</f>
+        <v>931400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45876</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45877</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45878</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>12</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>12</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>45879</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>12</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>45880</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="2">
+        <v>12</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2">
+        <v>21000</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="1"/>
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>45881</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="10">
+        <f>SUM(E3:E31)</f>
+        <v>1391000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A32:D32"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC5FBA5-D1BA-46AB-AC14-F5516DF713B9}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="6" max="6" width="22.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="E1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>45873</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5500</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="9">
+        <v>45876</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>45874</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="9">
+        <v>45877</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5500</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="14">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>45875</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9">
+        <v>45878</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5500</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9">
+        <v>45879</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9">
+        <v>45880</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7">
+        <v>35400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45876</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5500</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="15">
+        <f>SUM(G3:G9)</f>
+        <v>68400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45877</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5500</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45878</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>45879</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>45880</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="13">
+        <v>21000</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>45881</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="8">
+        <f>SUM(C3:C26)</f>
+        <v>138500</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="16">
+        <f>C28+G11</f>
+        <v>206900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Balance/수입및지출내역.xlsx
+++ b/Balance/수입및지출내역.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박승빈\Desktop\IVF-SEED\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499C5B69-32FD-47EF-BB27-7ACE05FDDC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB67A017-7E21-4B97-AB41-CE961B39BCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18E6AD9D-570A-4E80-8DE0-36A472B1012C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18E6AD9D-570A-4E80-8DE0-36A472B1012C}"/>
   </bookViews>
   <sheets>
     <sheet name="수입" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
   <si>
     <t>수입</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -101,155 +101,199 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>후원금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사님 후원금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>720,000+@</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICN-MNL 항공권 (4인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNL-ICN 항공권 (3인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNL-CGK 항공권 (1인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNL-MPH 왕복 항공권 (4인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입 총합</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>_+@</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라카이 숙소 (조식 포함)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출 총합</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체복신청</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>필리핀선교헌금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>후원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체복 구매 (8인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 숙소 1박 (8/9-10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁-일반</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁-학생</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심-학생</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심-일반</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동비</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장에서 음식재료 사기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>간식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 렌트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복 대여</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동궁과 월지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주월드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주월드(생일할인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>랩탑 스탠드 구매</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICN-MNL 왕복 항공권 (1인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNL-MPH 왕복 항공권 (1인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입 유형별 분류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>후원 및 헌금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체복 신청</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>상품 판매</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>후원금</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사님 후원금</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>720,000+@</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICN-MNL 항공권 (4인)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNL-ICN 항공권 (3인)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNL-CGK 항공권 (1인)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNL-MPH 왕복 항공권 (4인)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수입 총합</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>_+@</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>보라카이 숙소 (조식 포함)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지출 총합</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>단체복신청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>필리핀선교헌금</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>후원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>단체복 구매 (8인)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>경주 숙소 1박 (8/9-10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>총액</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>식비</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>아침</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁-일반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁-학생</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심-학생</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심-일반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>활동비</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>시장에서 음식재료 사기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>간식</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 렌트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>한복 대여</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>동궁과 월지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>경주월드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>경주월드(생일할인)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>랩탑 스탠드 구매</t>
+    <t>이벤트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출 유형별 분류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>항공권</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박(한국)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체복 구매</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,6 +515,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -809,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018A6AAC-DC8D-46EC-87FC-9984D95AE976}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -820,16 +870,22 @@
     <col min="1" max="1" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -839,8 +895,15 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SUM(C3,C4,C5,C6,C19)</f>
+        <v>2780000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45729</v>
       </c>
@@ -850,16 +913,30 @@
       <c r="C3" s="1">
         <v>700000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SUM(C7:C12,C14:C16,C18)</f>
+        <v>910000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>700000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1">
+        <f>SUM(C13,C17)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45730</v>
       </c>
@@ -869,8 +946,15 @@
       <c r="C5" s="1">
         <v>340000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1">
+        <f>C22</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45734</v>
       </c>
@@ -880,8 +964,15 @@
       <c r="C6" s="1">
         <v>340000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1">
+        <f>C21</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45735</v>
       </c>
@@ -891,8 +982,15 @@
       <c r="C7" s="1">
         <v>100000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <f>C20</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45742</v>
       </c>
@@ -903,7 +1001,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -911,8 +1009,15 @@
       <c r="C9" s="1">
         <v>100000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1">
+        <f>SUM(G2:G7)</f>
+        <v>3771080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45743</v>
       </c>
@@ -923,7 +1028,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45745</v>
       </c>
@@ -934,7 +1039,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -943,134 +1048,137 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45746</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45747</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>50000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45751</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <f>187+57+68+71+71+71+123+123+68+186</f>
         <v>1025</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1">
         <v>20000</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="1">
-        <f>SUM(C3:C21)</f>
-        <v>3071080</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <f>SUM(C3:C22)</f>
+        <v>3771080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1078,43 +1186,49 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="7">
+        <f>E22+720000</f>
+        <v>4491080</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="7">
-        <f>E21+720000</f>
-        <v>3791080</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1123,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F569244-BFDB-4D19-9594-BD0DA78A671F}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1134,16 +1248,22 @@
     <col min="1" max="1" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="10" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1153,129 +1273,180 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="23">
+        <f>SUM(C3:C6,C9:C10)</f>
+        <v>-1882184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45743</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>-593600</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="23">
+        <f>C8</f>
+        <v>-650000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>-363355</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="23">
+        <f>SUM(C7)</f>
+        <v>-213810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>-121118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45744</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>-435600</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="23">
+        <f>SUM(G2:G4)</f>
+        <v>-2745994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>-213810</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45750</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>-650000</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-260800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-107711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1">
-        <f>SUM(C3:C8)</f>
-        <v>-2377483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="E11" s="1">
+        <f>SUM(C3:C10)</f>
+        <v>-2745994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>-241269</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="6">
+        <f>SUM(C16:C20)</f>
+        <v>-241269</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>-241269</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="6">
-        <f>SUM(C13:C17)</f>
-        <v>-241269</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1">
-        <f>SUM(E8,E17)</f>
-        <v>-2618752</v>
+      <c r="E22" s="1">
+        <f>SUM(E11,E20)</f>
+        <v>-2987263</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1286,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B7EA35-A25C-4F31-87D3-1B749932A158}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1301,14 +1472,14 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="G1" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
@@ -1326,10 +1497,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -1341,10 +1512,10 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1352,7 +1523,7 @@
         <v>45873</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>4500</v>
@@ -1368,7 +1539,7 @@
         <v>45876</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3">
         <v>30000</v>
@@ -1384,7 +1555,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
         <v>5500</v>
@@ -1409,7 +1580,7 @@
         <v>45874</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="1"/>
@@ -1422,7 +1593,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>4500</v>
@@ -1442,7 +1613,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
         <v>5500</v>
@@ -1458,7 +1629,7 @@
         <v>45878</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7">
         <v>30000</v>
@@ -1473,7 +1644,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <v>10000</v>
@@ -1489,7 +1660,7 @@
         <v>45879</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8">
         <v>3000</v>
@@ -1507,7 +1678,7 @@
         <v>45875</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
@@ -1517,7 +1688,7 @@
         <v>45880</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9">
         <v>26000</v>
@@ -1533,7 +1704,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>4500</v>
@@ -1546,7 +1717,7 @@
         <v>22500</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10">
         <v>35400</v>
@@ -1561,7 +1732,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2">
         <v>5500</v>
@@ -1587,7 +1758,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
         <v>10000</v>
@@ -1605,7 +1776,7 @@
         <v>45876</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="1"/>
@@ -1614,7 +1785,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>4500</v>
@@ -1630,7 +1801,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
         <v>5500</v>
@@ -1648,7 +1819,7 @@
         <v>45877</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
@@ -1657,7 +1828,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>4500</v>
@@ -1673,7 +1844,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2">
         <v>5500</v>
@@ -1688,7 +1859,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2">
         <v>10000</v>
@@ -1703,7 +1874,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="1"/>
@@ -1715,7 +1886,7 @@
         <v>45878</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="1"/>
@@ -1725,7 +1896,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
         <v>10000</v>
@@ -1740,7 +1911,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2">
         <v>10000</v>
@@ -1758,7 +1929,7 @@
         <v>45879</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="1"/>
@@ -1768,7 +1939,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
         <v>10000</v>
@@ -1783,7 +1954,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
         <v>10000</v>
@@ -1801,7 +1972,7 @@
         <v>45880</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="1"/>
@@ -1810,7 +1981,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
         <v>10000</v>
@@ -1825,7 +1996,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -1840,7 +2011,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
         <v>21000</v>
@@ -1858,7 +2029,7 @@
         <v>45881</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="1"/>
@@ -1879,7 +2050,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -1917,12 +2088,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="E1" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -1953,7 +2124,7 @@
         <v>45873</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="13">
         <v>5500</v>
@@ -1963,10 +2134,10 @@
         <v>45876</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1974,7 +2145,7 @@
         <v>45874</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="2"/>
@@ -1985,7 +2156,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8">
         <v>5500</v>
@@ -1996,7 +2167,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="14">
         <v>10000</v>
@@ -2009,7 +2180,7 @@
         <v>45875</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
@@ -2017,7 +2188,7 @@
         <v>45878</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="7">
         <v>30000</v>
@@ -2026,7 +2197,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="8">
         <v>5500</v>
@@ -2036,7 +2207,7 @@
         <v>45879</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7">
         <v>3000</v>
@@ -2045,7 +2216,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="13">
         <v>10000</v>
@@ -2055,7 +2226,7 @@
         <v>45880</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7">
         <v>35400</v>
@@ -2066,7 +2237,7 @@
         <v>45876</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="2"/>
@@ -2075,7 +2246,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8">
         <v>5500</v>
@@ -2093,7 +2264,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="13">
         <v>10000</v>
@@ -2105,7 +2276,7 @@
         <v>45877</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="2"/>
@@ -2113,7 +2284,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="8">
         <v>5500</v>
@@ -2123,7 +2294,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="13">
         <v>10000</v>
@@ -2135,7 +2306,7 @@
         <v>45878</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="2"/>
@@ -2143,7 +2314,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="8">
         <v>10000</v>
@@ -2153,7 +2324,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="13">
         <v>10000</v>
@@ -2165,7 +2336,7 @@
         <v>45879</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="2"/>
@@ -2173,7 +2344,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="8">
         <v>10000</v>
@@ -2183,7 +2354,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13">
         <v>10000</v>
@@ -2195,7 +2366,7 @@
         <v>45880</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="2"/>
@@ -2203,7 +2374,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8">
         <v>10000</v>
@@ -2213,7 +2384,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -2223,7 +2394,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13">
         <v>21000</v>
@@ -2235,7 +2406,7 @@
         <v>45881</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="2"/>

--- a/Balance/수입및지출내역.xlsx
+++ b/Balance/수입및지출내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박승빈\Desktop\IVF-SEED\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB67A017-7E21-4B97-AB41-CE961B39BCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C11903-605C-44E0-9230-B71E650A72F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18E6AD9D-570A-4E80-8DE0-36A472B1012C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
   <si>
     <t>수입</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -294,6 +294,14 @@
   </si>
   <si>
     <t>단체복 구매</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 숙소 2박 (8/10-12)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +313,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +354,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +386,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -435,7 +469,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,8 +482,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,6 +544,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,18 +556,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="5" borderId="0" xfId="5" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="계산" xfId="3" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="4" builtinId="27"/>
+    <cellStyle name="보통" xfId="5" builtinId="28"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -862,7 +913,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -880,10 +931,10 @@
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1240,7 +1291,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1300,7 @@
     <col min="2" max="2" width="27.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="10" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1258,10 +1309,10 @@
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1276,7 +1327,7 @@
       <c r="F2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="1">
         <f>SUM(C3:C6,C9:C10)</f>
         <v>-1882184</v>
       </c>
@@ -1294,9 +1345,9 @@
       <c r="F3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="23">
-        <f>C8</f>
-        <v>-650000</v>
+      <c r="G3" s="1">
+        <f>C8+C11</f>
+        <v>-1150480</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1309,7 +1360,7 @@
       <c r="F4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="1">
         <f>SUM(C7)</f>
         <v>-213810</v>
       </c>
@@ -1336,9 +1387,9 @@
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="1">
         <f>SUM(G2:G4)</f>
-        <v>-2745994</v>
+        <v>-3246474</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1360,6 +1411,13 @@
       <c r="C8" s="1">
         <v>-650000</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <f>수입!E33</f>
+        <v>4491080</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1370,6 +1428,13 @@
       </c>
       <c r="C9" s="1">
         <v>-260800</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24">
+        <f>E12</f>
+        <v>-3246474</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1380,30 +1445,46 @@
       <c r="C10" s="1">
         <v>-107711</v>
       </c>
+      <c r="F10" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="26">
+        <f>SUM(G8:G9)</f>
+        <v>1244606</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1">
-        <f>SUM(C3:C10)</f>
-        <v>-2745994</v>
+      <c r="A11" s="3">
+        <v>45756</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-500480</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="C12" s="1"/>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <f>SUM(C3:C12)</f>
+        <v>-3246474</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1438,8 +1519,8 @@
         <v>25</v>
       </c>
       <c r="E22" s="1">
-        <f>SUM(E11,E20)</f>
-        <v>-2987263</v>
+        <f>SUM(E12,E20)</f>
+        <v>-3487743</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1539,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1471,20 +1552,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1744,12 +1825,12 @@
         <f>C11*D11</f>
         <v>38500</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="7">
         <f>SUM(K3:K10)</f>
         <v>931400</v>
@@ -2037,25 +2118,25 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="10">
         <f>SUM(E3:E31)</f>
         <v>1391000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2075,7 +2156,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2087,16 +2168,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -2252,10 +2333,10 @@
         <v>5500</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="15">
         <f>SUM(G3:G9)</f>
         <v>68400</v>
@@ -2418,10 +2499,10 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="8">
         <f>SUM(C3:C26)</f>
         <v>138500</v>

--- a/Balance/수입및지출내역.xlsx
+++ b/Balance/수입및지출내역.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박승빈\Desktop\IVF-SEED\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C11903-605C-44E0-9230-B71E650A72F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311DFA0-51CE-4C2B-96DA-DB3F47D39CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{18E6AD9D-570A-4E80-8DE0-36A472B1012C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{18E6AD9D-570A-4E80-8DE0-36A472B1012C}"/>
   </bookViews>
   <sheets>
     <sheet name="수입" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
   <si>
     <t>수입</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>720,000+@</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ICN-MNL 항공권 (4인)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -302,6 +298,30 @@
   </si>
   <si>
     <t>합계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,000+@</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 숙소 2박 환불</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 숙소 3박 (8/1-4)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 숙소 3박 추가금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체복 택배 배송</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>랩탑스탠드 구입</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -541,6 +561,21 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="5" borderId="0" xfId="5" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,21 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="5" borderId="0" xfId="5" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -910,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018A6AAC-DC8D-46EC-87FC-9984D95AE976}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -926,15 +946,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="F1" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="F1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -965,7 +985,7 @@
         <v>700000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1">
         <f>SUM(C7:C12,C14:C16,C18)</f>
@@ -980,7 +1000,7 @@
         <v>700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1">
         <f>SUM(C13,C17)</f>
@@ -998,10 +1018,10 @@
         <v>340000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1">
-        <f>C22</f>
+        <f>C30</f>
         <v>20000</v>
       </c>
     </row>
@@ -1016,11 +1036,11 @@
         <v>340000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1">
-        <f>C21</f>
-        <v>55</v>
+        <f>C29</f>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1034,11 +1054,11 @@
         <v>100000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7">
-        <f>C20</f>
-        <v>1025</v>
+        <f>C28</f>
+        <v>1572</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1065,7 +1085,7 @@
       </c>
       <c r="G9" s="1">
         <f>SUM(G2:G7)</f>
-        <v>3771080</v>
+        <v>3771631</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1104,7 +1124,7 @@
         <v>45746</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>30000</v>
@@ -1113,7 +1133,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>100000</v>
@@ -1124,7 +1144,7 @@
         <v>45747</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>50000</v>
@@ -1133,7 +1153,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>10000</v>
@@ -1142,7 +1162,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>30000</v>
@@ -1153,7 +1173,7 @@
         <v>45751</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>100000</v>
@@ -1171,114 +1191,170 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3">
+        <v>45768</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45782</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>45785</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>45793</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
-        <f>187+57+68+71+71+71+123+123+68+186</f>
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1">
-        <f>SUM(C3:C22)</f>
-        <v>3771080</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1">
-        <v>360000</v>
+      <c r="C28">
+        <f>187+57+68+71+71+71+123+123+68+186+383+164</f>
+        <v>1572</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C29" s="1">
+        <f>55+4</f>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1">
+        <f>SUM(C3:C30)</f>
+        <v>4521631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="5" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
+      <c r="E39" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="7">
+        <f>E30+120000</f>
+        <v>4641631</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E33" s="7">
-        <f>E22+720000</f>
-        <v>4491080</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1288,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F569244-BFDB-4D19-9594-BD0DA78A671F}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1304,15 +1380,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="F1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="F1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1325,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1">
         <f>SUM(C3:C6,C9:C10)</f>
@@ -1337,13 +1413,13 @@
         <v>45743</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>-593600</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1">
         <f>C8+C11</f>
@@ -1352,13 +1428,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>-363355</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1">
         <f>SUM(C7)</f>
@@ -1368,7 +1444,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>-121118</v>
@@ -1379,7 +1455,7 @@
         <v>45744</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>-435600</v>
@@ -1395,7 +1471,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>-213810</v>
@@ -1406,7 +1482,7 @@
         <v>45750</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>-650000</v>
@@ -1414,9 +1490,9 @@
       <c r="F8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="22">
-        <f>수입!E33</f>
-        <v>4491080</v>
+      <c r="G8" s="17">
+        <f>수입!E41</f>
+        <v>4641631</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1424,33 +1500,33 @@
         <v>45752</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>-260800</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="24">
-        <f>E12</f>
-        <v>-3246474</v>
+      <c r="G9" s="19">
+        <f>E20</f>
+        <v>-3523394</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>-107711</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="26">
+      <c r="F10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="21">
         <f>SUM(G8:G9)</f>
-        <v>1244606</v>
+        <v>1118237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1458,75 +1534,138 @@
         <v>45756</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1">
         <v>-500480</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1">
-        <f>SUM(C3:C12)</f>
-        <v>-3246474</v>
+      <c r="A12" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1">
+        <v>500480</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-349600</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-300000</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
+      <c r="A15" s="3">
+        <v>45786</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-7800</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45790</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16">
-        <v>-241269</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-120000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="6">
-        <f>SUM(C16:C20)</f>
-        <v>-241269</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="1">
-        <f>SUM(E12,E20)</f>
-        <v>-3487743</v>
+      <c r="E20" s="1">
+        <f>SUM(C3:C20)</f>
+        <v>-3523394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>-245864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="6">
+        <f>SUM(C24:C28)</f>
+        <v>-245864</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1">
+        <f>SUM(E20,E28)</f>
+        <v>-3769258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1538,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B7EA35-A25C-4F31-87D3-1B749932A158}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1552,20 +1691,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="G1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="G1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1578,10 +1717,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -1593,10 +1732,10 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1604,7 +1743,7 @@
         <v>45873</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>4500</v>
@@ -1620,7 +1759,7 @@
         <v>45876</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3">
         <v>30000</v>
@@ -1636,7 +1775,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <v>5500</v>
@@ -1661,7 +1800,7 @@
         <v>45874</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="1"/>
@@ -1674,7 +1813,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2">
         <v>4500</v>
@@ -1694,7 +1833,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
         <v>5500</v>
@@ -1710,7 +1849,7 @@
         <v>45878</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7">
         <v>30000</v>
@@ -1725,7 +1864,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>10000</v>
@@ -1741,7 +1880,7 @@
         <v>45879</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8">
         <v>3000</v>
@@ -1759,7 +1898,7 @@
         <v>45875</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
@@ -1769,7 +1908,7 @@
         <v>45880</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9">
         <v>26000</v>
@@ -1785,7 +1924,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2">
         <v>4500</v>
@@ -1798,7 +1937,7 @@
         <v>22500</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10">
         <v>35400</v>
@@ -1813,7 +1952,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>5500</v>
@@ -1825,12 +1964,12 @@
         <f>C11*D11</f>
         <v>38500</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="7">
         <f>SUM(K3:K10)</f>
         <v>931400</v>
@@ -1839,7 +1978,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>10000</v>
@@ -1857,7 +1996,7 @@
         <v>45876</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="1"/>
@@ -1866,7 +2005,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2">
         <v>4500</v>
@@ -1882,7 +2021,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2">
         <v>5500</v>
@@ -1900,7 +2039,7 @@
         <v>45877</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
@@ -1909,7 +2048,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
         <v>4500</v>
@@ -1925,7 +2064,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
         <v>5500</v>
@@ -1940,7 +2079,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2">
         <v>10000</v>
@@ -1955,7 +2094,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="1"/>
@@ -1967,7 +2106,7 @@
         <v>45878</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="1"/>
@@ -1977,7 +2116,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>10000</v>
@@ -1992,7 +2131,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>10000</v>
@@ -2010,7 +2149,7 @@
         <v>45879</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="1"/>
@@ -2020,7 +2159,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2">
         <v>10000</v>
@@ -2035,7 +2174,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2">
         <v>10000</v>
@@ -2053,7 +2192,7 @@
         <v>45880</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="1"/>
@@ -2062,7 +2201,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
         <v>10000</v>
@@ -2077,7 +2216,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -2092,7 +2231,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <v>21000</v>
@@ -2110,7 +2249,7 @@
         <v>45881</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="1"/>
@@ -2118,25 +2257,25 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="10">
         <f>SUM(E3:E31)</f>
         <v>1391000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="A33" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2168,16 +2307,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="E1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="A1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -2205,7 +2344,7 @@
         <v>45873</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="13">
         <v>5500</v>
@@ -2215,10 +2354,10 @@
         <v>45876</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2226,7 +2365,7 @@
         <v>45874</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="2"/>
@@ -2237,7 +2376,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8">
         <v>5500</v>
@@ -2248,7 +2387,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14">
         <v>10000</v>
@@ -2261,7 +2400,7 @@
         <v>45875</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
@@ -2269,7 +2408,7 @@
         <v>45878</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7">
         <v>30000</v>
@@ -2278,7 +2417,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="8">
         <v>5500</v>
@@ -2288,7 +2427,7 @@
         <v>45879</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7">
         <v>3000</v>
@@ -2297,7 +2436,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="13">
         <v>10000</v>
@@ -2307,7 +2446,7 @@
         <v>45880</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7">
         <v>35400</v>
@@ -2318,7 +2457,7 @@
         <v>45876</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="2"/>
@@ -2327,16 +2466,16 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="8">
         <v>5500</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="15">
         <f>SUM(G3:G9)</f>
         <v>68400</v>
@@ -2345,7 +2484,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="13">
         <v>10000</v>
@@ -2357,7 +2496,7 @@
         <v>45877</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="2"/>
@@ -2365,7 +2504,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="8">
         <v>5500</v>
@@ -2375,7 +2514,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="13">
         <v>10000</v>
@@ -2387,7 +2526,7 @@
         <v>45878</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="2"/>
@@ -2395,7 +2534,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="8">
         <v>10000</v>
@@ -2405,7 +2544,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="13">
         <v>10000</v>
@@ -2417,7 +2556,7 @@
         <v>45879</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="2"/>
@@ -2425,7 +2564,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="8">
         <v>10000</v>
@@ -2435,7 +2574,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="13">
         <v>10000</v>
@@ -2447,7 +2586,7 @@
         <v>45880</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="2"/>
@@ -2455,7 +2594,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="8">
         <v>10000</v>
@@ -2465,7 +2604,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -2475,7 +2614,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13">
         <v>21000</v>
@@ -2487,7 +2626,7 @@
         <v>45881</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="2"/>
@@ -2499,10 +2638,10 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="8">
         <f>SUM(C3:C26)</f>
         <v>138500</v>
